--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail15 Features.xlsx
@@ -3268,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3279,29 +3279,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3322,115 +3320,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3447,72 +3435,66 @@
         <v>2.240369940798463e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2093734893676133</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.447539792134532</v>
+        <v>3.893256587754544e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.01502506281337762</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.893256587754544e-06</v>
+        <v>0.1035065107697341</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01502506281337762</v>
+        <v>0.01093716947902955</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1035065107697341</v>
+        <v>1.701176590547846</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01093716947902955</v>
+        <v>1.613157766923428</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.636152265505602</v>
+        <v>3.367678343927802</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.613157766923428</v>
+        <v>9.88209583017813e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.367678343927802</v>
+        <v>24447415.39579997</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.88209583017813e-15</v>
+        <v>4.667634524659212e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>24447415.39579997</v>
+        <v>5.906292688651866</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.667634524659212e-06</v>
+        <v>0.0001697829579960783</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5.906292688651866</v>
+        <v>10.66551747087667</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001697829579960783</v>
+        <v>1.136280336683483</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.66551747087667</v>
+        <v>0.0193133654605307</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.136280336683483</v>
+        <v>2.632916928750484</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0193133654605307</v>
+        <v>0.9525928135629443</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.632916928750484</v>
+        <v>1.758422800624466</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9525928135629443</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.758422800624466</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1601332270042406</v>
       </c>
     </row>
@@ -3527,72 +3509,66 @@
         <v>2.244893724617222e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2539806635812065</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.442002264061246</v>
+        <v>3.889421556002276e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.01917169023646433</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.889421556002276e-06</v>
+        <v>0.1010842879089514</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01917169023646433</v>
+        <v>0.01058354362742488</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1010842879089514</v>
+        <v>1.692409419684726</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01058354362742488</v>
+        <v>1.567565427126173</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.630535218025434</v>
+        <v>3.354413992572725</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.567565427126173</v>
+        <v>9.960403847832672e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.354413992572725</v>
+        <v>23502629.99835237</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.960403847832672e-15</v>
+        <v>4.831427562460002e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>23502629.99835237</v>
+        <v>5.501864298608936</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.831427562460002e-06</v>
+        <v>0.0001700868923041325</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.501864298608936</v>
+        <v>9.170909554106354</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001700868923041325</v>
+        <v>1.344511285344113</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.170909554106354</v>
+        <v>0.01430525707624656</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.344511285344113</v>
+        <v>2.84826604156732</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01430525707624656</v>
+        <v>0.9518934109036684</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.84826604156732</v>
+        <v>1.77165554471947</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9518934109036684</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.77165554471947</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1527196334244245</v>
       </c>
     </row>
@@ -3607,72 +3583,66 @@
         <v>2.24841953932099e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.3071815925896632</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.425516994251215</v>
+        <v>3.884669406203624e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.02305049099257071</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.884669406203624e-06</v>
+        <v>0.09964630772303418</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02305049099257071</v>
+        <v>0.01045914329665188</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.09964630772303418</v>
+        <v>1.69978183164723</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01045914329665188</v>
+        <v>1.549966933895535</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.632909177568656</v>
+        <v>3.369791528754531</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.549966933895535</v>
+        <v>9.869705658826027e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.369791528754531</v>
+        <v>23819366.24220764</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.869705658826027e-15</v>
+        <v>4.777582119478725e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>23819366.24220764</v>
+        <v>5.599697996682328</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.777582119478725e-06</v>
+        <v>0.0001785901725559608</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.599697996682328</v>
+        <v>8.713546535388664</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001785901725559608</v>
+        <v>1.563975345796491</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.713546535388664</v>
+        <v>0.01355961837240816</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.563975345796491</v>
+        <v>2.867933037657632</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01355961837240816</v>
+        <v>0.952216482180826</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.867933037657632</v>
+        <v>1.788162152482639</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.952216482180826</v>
+        <v>1</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.788162152482639</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1477786949034184</v>
       </c>
     </row>
@@ -3687,72 +3657,66 @@
         <v>2.251091346769029e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.366572761030561</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.396792338985804</v>
+        <v>3.879063089701036e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.02680427758692777</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.879063089701036e-06</v>
+        <v>0.09854909024759016</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.02680427758692777</v>
+        <v>0.01042874090102701</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09854909024759016</v>
+        <v>1.697496336080895</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01042874090102701</v>
+        <v>1.526581728093883</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.626409992414499</v>
+        <v>3.416027330346188</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.526581728093883</v>
+        <v>9.604341550943433e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.416027330346188</v>
+        <v>23964061.0019831</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.604341550943433e-15</v>
+        <v>4.724765438408483e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>23964061.0019831</v>
+        <v>5.515544958648423</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.724765438408483e-06</v>
+        <v>0.0001679002938326131</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>5.515544958648423</v>
+        <v>9.808656030981457</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001679002938326131</v>
+        <v>1.198876968430507</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.808656030981457</v>
+        <v>0.01615364246277418</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.198876968430507</v>
+        <v>2.730288930549986</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01615364246277418</v>
+        <v>0.950656709438541</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.730288930549986</v>
+        <v>1.771120542801277</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.950656709438541</v>
+        <v>6</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.771120542801277</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1536951735958847</v>
       </c>
     </row>
@@ -3767,72 +3731,66 @@
         <v>2.252313160385113e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4306547554413422</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.352879081421323</v>
+        <v>3.872594455458445e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.03062102609875652</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.872594455458445e-06</v>
+        <v>0.09733331639169047</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03062102609875652</v>
+        <v>0.01040992112764992</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09733331639169047</v>
+        <v>1.687635445271735</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01040992112764992</v>
+        <v>1.498130749323817</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.61636154616791</v>
+        <v>3.502952785031148</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.498130749323817</v>
+        <v>9.133593985904625e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.502952785031148</v>
+        <v>24468172.53203199</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.133593985904625e-15</v>
+        <v>4.591259190344628e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>24468172.53203199</v>
+        <v>5.468204782926832</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.591259190344628e-06</v>
+        <v>0.0001723452192505016</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.468204782926832</v>
+        <v>11.13717192124564</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001723452192505016</v>
+        <v>1.077543538564673</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.13717192124564</v>
+        <v>0.02137711474691733</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.077543538564673</v>
+        <v>2.481082330410864</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02137711474691733</v>
+        <v>0.9510397418401879</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.481082330410864</v>
+        <v>1.759220718722474</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9510397418401879</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.759220718722474</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.160733720168495</v>
       </c>
     </row>
@@ -3847,72 +3805,66 @@
         <v>2.252092414942691e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4973016012569154</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.292470591669322</v>
+        <v>3.865307596653389e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.03391237590927069</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.865307596653389e-06</v>
+        <v>0.09697451178790205</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03391237590927069</v>
+        <v>0.01055316578552498</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.09697451178790205</v>
+        <v>1.684629441630437</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01055316578552498</v>
+        <v>1.484742988955547</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.616868498902696</v>
+        <v>3.67429435814376</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.484742988955547</v>
+        <v>8.301610968974284e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.67429435814376</v>
+        <v>27087358.92109695</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.301610968974284e-15</v>
+        <v>4.139163882335512e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>27087358.92109695</v>
+        <v>6.091099618790859</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.139163882335512e-06</v>
+        <v>0.0001712207459278434</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.091099618790859</v>
+        <v>10.8094092883038</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001712207459278434</v>
+        <v>1.113856802711109</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.8094092883038</v>
+        <v>0.02000600197582188</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.113856802711109</v>
+        <v>2.611343843942086</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02000600197582188</v>
+        <v>0.9508359331573246</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.611343843942086</v>
+        <v>1.78400550649797</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9508359331573246</v>
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.78400550649797</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1582631506933454</v>
       </c>
     </row>
@@ -3927,72 +3879,66 @@
         <v>2.252252823851497e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5635023822223671</v>
+        <v>6.755574169082413e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.217975446357026</v>
+        <v>3.857394692909493e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.755574169082413e-07</v>
+        <v>-0.03626950430453422</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.857394692909493e-06</v>
+        <v>0.09735229400557334</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03626950430453422</v>
+        <v>0.01079217035022709</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09735229400557334</v>
+        <v>1.690979000491452</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01079217035022709</v>
+        <v>1.531239240426416</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.626944537928821</v>
+        <v>3.784613847967869</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.531239240426416</v>
+        <v>7.824689649784799e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.784613847967869</v>
+        <v>28525885.49935422</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.824689649784799e-15</v>
+        <v>3.937414996892198e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>28525885.49935422</v>
+        <v>6.367154532977987</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.937414996892198e-06</v>
+        <v>0.0001726757875252932</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6.367154532977987</v>
+        <v>9.727520093354494</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001726757875252932</v>
+        <v>1.251722002876241</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.727520093354494</v>
+        <v>0.01633938546879832</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.251722002876241</v>
+        <v>2.77100662824542</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01633938546879832</v>
+        <v>0.9513044136539504</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.77100662824542</v>
+        <v>1.784852736451136</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9513044136539504</v>
+        <v>22</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.784852736451136</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1545985814086843</v>
       </c>
     </row>
@@ -4007,72 +3953,66 @@
         <v>2.253813805610426e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.6273243552179918</v>
+        <v>6.805521506917186e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.13043767167139</v>
+        <v>3.848978613878177e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>6.805521506917186e-07</v>
+        <v>-0.03848463988673207</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.848978613878177e-06</v>
+        <v>0.09756363111575388</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03848463988673207</v>
+        <v>0.01099902231219333</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.09756363111575388</v>
+        <v>1.705316850095073</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01099902231219333</v>
+        <v>1.481554506191626</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.645579099056485</v>
+        <v>3.906956731716596</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.481554506191626</v>
+        <v>7.342315905925383e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.906956731716596</v>
+        <v>31118779.67949109</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.342315905925383e-15</v>
+        <v>3.623813838514575e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>31118779.67949109</v>
+        <v>7.110140487144246</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.623813838514575e-06</v>
+        <v>0.0001802026799974028</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>7.110140487144246</v>
+        <v>8.808080389949259</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001802026799974028</v>
+        <v>1.468869632485726</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.808080389949259</v>
+        <v>0.01398053480438605</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.468869632485726</v>
+        <v>2.828377399275292</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01398053480438605</v>
+        <v>0.9511706757420076</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.828377399275292</v>
+        <v>1.766705122394634</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9511706757420076</v>
+        <v>22</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.766705122394634</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.155149335941925</v>
       </c>
     </row>
@@ -4087,72 +4027,66 @@
         <v>2.255742053529511e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6883146302711705</v>
+        <v>7.049366120158743e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.027555742615356</v>
+        <v>3.840027466540128e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.049366120158743e-07</v>
+        <v>-0.04088579678838515</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.840027466540128e-06</v>
+        <v>0.09736459996814543</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04088579678838515</v>
+        <v>0.01115096538488238</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.09736459996814543</v>
+        <v>1.710480740288294</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01115096538488238</v>
+        <v>1.462548173271417</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.649853375397327</v>
+        <v>4.280709416305809</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.462548173271417</v>
+        <v>6.116159088793047e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.280709416305809</v>
+        <v>37640645.98315343</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.116159088793047e-15</v>
+        <v>3.011005818088859e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>37640645.98315343</v>
+        <v>8.665485694760063</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.011005818088859e-06</v>
+        <v>0.0001676189444799648</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>8.665485694760063</v>
+        <v>9.093560325652858</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001676189444799648</v>
+        <v>1.337094851509461</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.093560325652858</v>
+        <v>0.013860886455657</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.337094851509461</v>
+        <v>2.858808091001472</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.013860886455657</v>
+        <v>0.9535417508433889</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.858808091001472</v>
+        <v>1.783471538908231</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9535417508433889</v>
+        <v>22</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.783471538908231</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1755700372869966</v>
       </c>
     </row>
@@ -4167,72 +4101,66 @@
         <v>2.257034923847663e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.746350252034106</v>
+        <v>7.268545919662565e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.9079570028284749</v>
+        <v>3.83055281175941e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.268545919662565e-07</v>
+        <v>-0.04309641244669082</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.83055281175941e-06</v>
+        <v>0.09703357444002716</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04309641244669082</v>
+        <v>0.01127235620527741</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09703357444002716</v>
+        <v>1.727882250563459</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01127235620527741</v>
+        <v>1.523598005925823</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.675684056280036</v>
+        <v>3.664511866445414</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.523598005925823</v>
+        <v>5.057961010739893e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.664511866445414</v>
+        <v>45001750.75900641</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.057961010739893e-15</v>
+        <v>2.526966516073953e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>45001750.75900641</v>
+        <v>10.24316803662316</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>2.526966516073953e-06</v>
+        <v>0.0001529463214887785</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>10.24316803662316</v>
+        <v>11.26874237883765</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001529463214887785</v>
+        <v>1.049125216529794</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.26874237883765</v>
+        <v>0.01942182054264376</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.049125216529794</v>
+        <v>2.705986689692898</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01942182054264376</v>
+        <v>0.952790481976439</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.705986689692898</v>
+        <v>1.768679350074601</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.952790481976439</v>
+        <v>22</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.768679350074601</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2139277016216624</v>
       </c>
     </row>
@@ -4247,72 +4175,66 @@
         <v>2.256039570503256e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.8017376287240713</v>
+        <v>7.464561036079012e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7697475599146366</v>
+        <v>3.820534648994609e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.464561036079012e-07</v>
+        <v>-0.04584111673165985</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.820534648994609e-06</v>
+        <v>0.09593274512729366</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04584111673165985</v>
+        <v>0.01130349278758675</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09593274512729366</v>
+        <v>1.800598909466032</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01130349278758675</v>
+        <v>1.700749813166949</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.768749508935824</v>
+        <v>3.37401735525199</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.700749813166949</v>
+        <v>5.143959711895399e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.37401735525199</v>
+        <v>43984269.60087016</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.143959711895399e-15</v>
+        <v>2.663507652218152e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>43984269.60087016</v>
+        <v>9.951586619613872</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.663507652218152e-06</v>
+        <v>0.0001589262789196229</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>9.951586619613872</v>
+        <v>12.12896533115102</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001589262789196229</v>
+        <v>1.183002782792549</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.12896533115102</v>
+        <v>0.02337993095984533</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.183002782792549</v>
+        <v>2.891986091873082</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02337993095984533</v>
+        <v>0.9558267021354047</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.891986091873082</v>
+        <v>1.608003988212842</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9558267021354047</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.608003988212842</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2348294328259671</v>
       </c>
     </row>
@@ -4327,72 +4249,66 @@
         <v>2.248189539670434e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.8545928145705995</v>
+        <v>7.642369272840991e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.6081703511182743</v>
+        <v>3.809769975609275e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.642369272840991e-07</v>
+        <v>-0.04999986522065328</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.809769975609275e-06</v>
+        <v>0.09242406066368267</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04999986522065328</v>
+        <v>0.01103906336133702</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09242406066368267</v>
+        <v>1.842352739529795</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01103906336133702</v>
+        <v>1.583598033129754</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.820279459716398</v>
+        <v>3.558616633163544</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.583598033129754</v>
+        <v>3.737520673498262e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.558616633163544</v>
+        <v>59679922.75910683</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>3.737520673498262e-15</v>
+        <v>1.989808725558282e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>59679922.75910683</v>
+        <v>13.31190189489971</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.989808725558282e-06</v>
+        <v>0.0001722079421596017</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>13.31190189489971</v>
+        <v>12.15595866530419</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001722079421596017</v>
+        <v>1.369187259874767</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.15595866530419</v>
+        <v>0.02544670800242625</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.369187259874767</v>
+        <v>3.036385457109325</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02544670800242625</v>
+        <v>0.9574082926219952</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.036385457109325</v>
+        <v>1.582003075396005</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9574082926219952</v>
+        <v>21</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.582003075396005</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.3156060771122586</v>
       </c>
     </row>
@@ -4407,72 +4323,66 @@
         <v>2.227005099234655e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.9013977854342331</v>
+        <v>7.802161226730909e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.4254864551863959</v>
+        <v>3.798019020700169e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.802161226730909e-07</v>
+        <v>-0.05481353881818399</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.798019020700169e-06</v>
+        <v>0.08795141332159749</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05481353881818399</v>
+        <v>0.01073843563642811</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08795141332159749</v>
+        <v>1.847193258743843</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01073843563642811</v>
+        <v>1.574201009428865</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.824778884212287</v>
+        <v>4.570178216187545</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.574201009428865</v>
+        <v>2.27048152961963e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.570178216187545</v>
+        <v>95427351.98647171</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.27048152961963e-15</v>
+        <v>1.243838176554411e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>95427351.98647171</v>
+        <v>20.67586647269071</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.243838176554411e-06</v>
+        <v>0.0001350010323335681</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>20.67586647269071</v>
+        <v>10.52890865638861</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001350010323335681</v>
+        <v>1.444140594760882</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.52890865638861</v>
+        <v>0.01496593330411714</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.444140594760882</v>
+        <v>3.317094269604883</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01496593330411714</v>
+        <v>0.9577317442011435</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.317094269604883</v>
+        <v>1.599777083681804</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9577317442011435</v>
+        <v>21</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.599777083681804</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.4841184866335607</v>
       </c>
     </row>
@@ -4487,72 +4397,66 @@
         <v>2.190951145700061e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.9364452136088585</v>
+        <v>7.93335733867313e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.2385213553623378</v>
+        <v>3.78542224968692e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.93335733867313e-07</v>
+        <v>-0.05908632396379462</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.78542224968692e-06</v>
+        <v>0.08558201444769778</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05908632396379462</v>
+        <v>0.0108148941036908</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08558201444769778</v>
+        <v>1.878575868253952</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0108148941036908</v>
+        <v>1.699107594792691</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.870749487258497</v>
+        <v>5.214060468621827</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.699107594792691</v>
+        <v>8.521125025720555e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.214060468621827</v>
+        <v>252242030.6504183</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>8.521125025720555e-16</v>
+        <v>4.723457708834632e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>252242030.6504183</v>
+        <v>54.2165459000806</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.723457708834632e-07</v>
+        <v>0.0001035859215899188</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>54.2165459000806</v>
+        <v>10.91721303678011</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001035859215899188</v>
+        <v>1.302841762435559</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.91721303678011</v>
+        <v>0.01234594405189498</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.302841762435559</v>
+        <v>3.492764801766336</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01234594405189498</v>
+        <v>0.9578233670300803</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.492764801766336</v>
+        <v>1.529234374070731</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9578233670300803</v>
+        <v>21</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.529234374070731</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.7515427977329054</v>
       </c>
     </row>
@@ -4567,72 +4471,66 @@
         <v>2.140715441918039e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.9552702987343811</v>
+        <v>8.027308945278947e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.06702773017077845</v>
+        <v>3.772235347978461e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.027308945278947e-07</v>
+        <v>-0.06239584499862653</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.772235347978461e-06</v>
+        <v>0.08585297040793019</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06239584499862653</v>
+        <v>0.01126435939599603</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08585297040793019</v>
+        <v>1.896970935821498</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01126435939599603</v>
+        <v>1.955356356350647</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.907124304900271</v>
+        <v>3.950596003849128</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.955356356350647</v>
+        <v>6.084166303932655e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.950596003849128</v>
+        <v>338481056.003298</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>6.084166303932655e-16</v>
+        <v>3.53065904765233e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>338481056.003298</v>
+        <v>69.70594367075725</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.53065904765233e-07</v>
+        <v>9.791983839552284e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>69.70594367075725</v>
+        <v>12.17225932353495</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.791983839552284e-05</v>
+        <v>1.244193444426426</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>12.17225932353495</v>
+        <v>0.01450818485414731</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.244193444426426</v>
+        <v>3.617046623023439</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01450818485414731</v>
+        <v>0.9580594295708991</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.617046623023439</v>
+        <v>1.370979553364102</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9580594295708991</v>
+        <v>21</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.370979553364102</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>1.005169171399227</v>
       </c>
     </row>
@@ -4647,72 +4545,66 @@
         <v>2.07989903605894e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9582249949675166</v>
+        <v>8.061825081081154e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.07998221445400011</v>
+        <v>3.758816672546136e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>8.061825081081154e-07</v>
+        <v>-0.06459461766347527</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.758816672546136e-06</v>
+        <v>0.08812524310109873</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06459461766347527</v>
+        <v>0.01193903302036685</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08812524310109873</v>
+        <v>1.902326168821611</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01193903302036685</v>
+        <v>1.816879398504382</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.915381941293238</v>
+        <v>4.335386845459565</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.816879398504382</v>
+        <v>6.982663494842164e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.335386845459565</v>
+        <v>276364257.682466</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>6.982663494842164e-16</v>
+        <v>4.309257578952867e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>276364257.682466</v>
+        <v>53.33163066982237</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.309257578952867e-07</v>
+        <v>0.0001227789532296733</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>53.33163066982237</v>
+        <v>10.93828412301835</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001227789532296733</v>
+        <v>1.090447741284783</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.93828412301835</v>
+        <v>0.01469001795032553</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.090447741284783</v>
+        <v>3.377220129239543</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01469001795032553</v>
+        <v>0.9573827479661058</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.377220129239543</v>
+        <v>1.351149183914403</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9573827479661058</v>
+        <v>21</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.351149183914403</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.8466068400480444</v>
       </c>
     </row>
@@ -5089,7 +4981,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.327858416280617</v>
+        <v>1.342835877148292</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.854041792524094</v>
@@ -5178,7 +5070,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.289197172061034</v>
+        <v>1.31647881440689</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.86312014129498</v>
@@ -5267,7 +5159,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.28656701194137</v>
+        <v>1.315794973566406</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.83789262515169</v>
@@ -5356,7 +5248,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.283024738723891</v>
+        <v>1.312224729683473</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.907600903535358</v>
@@ -5445,7 +5337,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.287760602092628</v>
+        <v>1.316298668371203</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.891961991695158</v>
@@ -5534,7 +5426,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.305828219586361</v>
+        <v>1.335821453869027</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.888987588197198</v>
@@ -5623,7 +5515,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.315916564546876</v>
+        <v>1.347146139338153</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.866819653607652</v>
@@ -5712,7 +5604,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.315135132010909</v>
+        <v>1.343296618726193</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.941814197851963</v>
@@ -5801,7 +5693,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.33584680764202</v>
+        <v>1.365486375684902</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.811269716650697</v>
@@ -5890,7 +5782,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.332871672826641</v>
+        <v>1.358843922938697</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.8521177230282</v>
@@ -5979,7 +5871,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.359389242094316</v>
+        <v>1.383663570748568</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.799602811148568</v>
@@ -6068,7 +5960,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.373468568541613</v>
+        <v>1.396935305372417</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.826797200786628</v>
@@ -6157,7 +6049,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.36917654284147</v>
+        <v>1.392741595687555</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.796499431662025</v>
@@ -6246,7 +6138,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.364922843368303</v>
+        <v>1.384789029099102</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.74187114550878</v>
@@ -6335,7 +6227,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.384689108370583</v>
+        <v>1.405094169459054</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.673206317534439</v>
@@ -6424,7 +6316,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.437961651417765</v>
+        <v>1.45338177719291</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.764597307439168</v>
@@ -6513,7 +6405,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525187449702278</v>
+        <v>1.529069818880363</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.783642861102203</v>
@@ -6602,7 +6494,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615089083548769</v>
+        <v>1.604889787176738</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.955926786663164</v>
@@ -6691,7 +6583,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.70773960430607</v>
+        <v>1.671086972087172</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.639736942266663</v>
@@ -6780,7 +6672,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.707383210951791</v>
+        <v>1.671481199779314</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.613855812732286</v>
@@ -6869,7 +6761,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666007452019623</v>
+        <v>1.636304415992396</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.586639914597044</v>
@@ -6958,7 +6850,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.667244228541828</v>
+        <v>1.635139040480904</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.585856618407564</v>
@@ -7047,7 +6939,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.655581629386906</v>
+        <v>1.626554641676555</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.652422091529931</v>
@@ -7136,7 +7028,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.67836719798121</v>
+        <v>1.642516281489256</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.719148381432747</v>
@@ -7225,7 +7117,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.644993704926219</v>
+        <v>1.617172243124426</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.553448499117673</v>
@@ -7314,7 +7206,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.622438598456538</v>
+        <v>1.604178984621461</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.356586696445563</v>
@@ -7403,7 +7295,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.544254525383881</v>
+        <v>1.540857839410669</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.16605948733898</v>
@@ -7492,7 +7384,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.522066292989796</v>
+        <v>1.520002063597421</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.184097983119137</v>
@@ -7581,7 +7473,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.519942917620891</v>
+        <v>1.518394259563374</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.118048289964975</v>
@@ -7670,7 +7562,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.515153205408807</v>
+        <v>1.514963063547174</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.123444871080461</v>
@@ -7759,7 +7651,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510464146376083</v>
+        <v>1.514495907959435</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.159858023089007</v>
@@ -7848,7 +7740,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.508198856128415</v>
+        <v>1.513120662986986</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.208219205128608</v>
@@ -7937,7 +7829,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.500536692374559</v>
+        <v>1.50834628376954</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.113444939665295</v>
@@ -8026,7 +7918,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.492523413110926</v>
+        <v>1.50238272603231</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.133006743207992</v>
@@ -8115,7 +8007,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.467786199691839</v>
+        <v>1.484308075795836</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.156797248003223</v>
@@ -8204,7 +8096,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473566218594103</v>
+        <v>1.490332642638652</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.148509632497273</v>
@@ -8293,7 +8185,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.465116993124143</v>
+        <v>1.479955671195234</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.111890727125735</v>
@@ -8382,7 +8274,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.450336211246655</v>
+        <v>1.467866196309098</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.185375413514932</v>
@@ -8471,7 +8363,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.442189321849679</v>
+        <v>1.465699318479287</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.182605158026949</v>
@@ -8560,7 +8452,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.469158031791031</v>
+        <v>1.493520788938825</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.13962852106131</v>
@@ -8649,7 +8541,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.50229038375824</v>
+        <v>1.521202004660829</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.136089462410947</v>
@@ -8738,7 +8630,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.516118573435028</v>
+        <v>1.531345499493823</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.455749428470402</v>
@@ -8827,7 +8719,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.513980803274907</v>
+        <v>1.521067090923962</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.126086906132179</v>
@@ -8916,7 +8808,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.413921191106173</v>
+        <v>1.429873841900928</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.987381224918404</v>
@@ -9005,7 +8897,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.424909409904677</v>
+        <v>1.459294966261386</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.115610681797004</v>
@@ -9094,7 +8986,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.467407201607593</v>
+        <v>1.504839012041062</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.216711384365591</v>
@@ -9183,7 +9075,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.487851996358615</v>
+        <v>1.527855733085554</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.25479098142579</v>
@@ -9272,7 +9164,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.510835294430966</v>
+        <v>1.554228248653408</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.317412443212695</v>
@@ -9361,7 +9253,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.532845793029135</v>
+        <v>1.576567218746123</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.433462289123616</v>
@@ -9450,7 +9342,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.547798508332221</v>
+        <v>1.591077137669739</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.272455621909944</v>
@@ -9539,7 +9431,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.557268188374962</v>
+        <v>1.600859370844738</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.365424466716679</v>
@@ -9628,7 +9520,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.573481354822531</v>
+        <v>1.618696749403194</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.39434092791125</v>
@@ -9717,7 +9609,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.582787346947469</v>
+        <v>1.6242465200902</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.339389428264305</v>
@@ -9806,7 +9698,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.591946704385896</v>
+        <v>1.631753705012107</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.386729803846503</v>
@@ -9895,7 +9787,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.590543691467769</v>
+        <v>1.628543176539742</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.424178624200569</v>
@@ -9984,7 +9876,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.580979913047941</v>
+        <v>1.619593209035992</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.394590084893748</v>
@@ -10073,7 +9965,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.594701730275518</v>
+        <v>1.632340439788744</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.458942367261284</v>
@@ -10162,7 +10054,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.658161822271595</v>
+        <v>1.6963370082964</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.131664271097383</v>
@@ -10251,7 +10143,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.727741853662611</v>
+        <v>1.756011044620838</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.516946482547691</v>
@@ -10340,7 +10232,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.771855490683964</v>
+        <v>1.778564050159412</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.078222921605768</v>
@@ -10429,7 +10321,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.74735015791734</v>
+        <v>1.750857670125759</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.761728373295211</v>
@@ -10715,7 +10607,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.512700949795563</v>
+        <v>1.513452052163941</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.279882156247932</v>
@@ -10804,7 +10696,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.49770062125006</v>
+        <v>1.499850850747941</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.202619295778699</v>
@@ -10893,7 +10785,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.499697922373554</v>
+        <v>1.502083078521983</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.349918498762428</v>
@@ -10982,7 +10874,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.48646608528744</v>
+        <v>1.487927539743639</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.240674413637712</v>
@@ -11071,7 +10963,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49177005311044</v>
+        <v>1.492460660180991</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.305665400114873</v>
@@ -11160,7 +11052,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.497157221019824</v>
+        <v>1.499668223279226</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.28149748907481</v>
@@ -11249,7 +11141,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.496057982091602</v>
+        <v>1.500108971844839</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.216882184753504</v>
@@ -11338,7 +11230,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494817706549868</v>
+        <v>1.498201063664277</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.200096200845554</v>
@@ -11427,7 +11319,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519291226976238</v>
+        <v>1.524155687252067</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.134142031428405</v>
@@ -11516,7 +11408,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.532912787798883</v>
+        <v>1.524702333836062</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.222102556269035</v>
@@ -11605,7 +11497,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.550480850995891</v>
+        <v>1.542382612001493</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.157840017582369</v>
@@ -11694,7 +11586,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.567143512823574</v>
+        <v>1.551173971381238</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.097409015513879</v>
@@ -11783,7 +11675,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.568698008044714</v>
+        <v>1.553573355774158</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.186669015512525</v>
@@ -11872,7 +11764,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.567251491229334</v>
+        <v>1.547873856175811</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.193966472180974</v>
@@ -11961,7 +11853,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565855187430963</v>
+        <v>1.541644199151643</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.099695604724346</v>
@@ -12050,7 +11942,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.653354509549301</v>
+        <v>1.606550170717865</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.375347858354993</v>
@@ -12139,7 +12031,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.648281140091652</v>
+        <v>1.6088098262078</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.801485938793577</v>
@@ -12228,7 +12120,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666741764280332</v>
+        <v>1.621284288030963</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.652085585690415</v>
@@ -12317,7 +12209,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.69063096136348</v>
+        <v>1.636589346993812</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.739832301685276</v>
@@ -12406,7 +12298,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.687800335724645</v>
+        <v>1.626858902205945</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.618396344938881</v>
@@ -12495,7 +12387,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.668461148703715</v>
+        <v>1.607743910699879</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.892393956483054</v>
@@ -12584,7 +12476,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.652670770555182</v>
+        <v>1.5934206562345</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.680050907502427</v>
@@ -12673,7 +12565,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647903853418987</v>
+        <v>1.58702708390745</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.709373373214044</v>
@@ -12762,7 +12654,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.636540288090418</v>
+        <v>1.577164980898046</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.737546070052407</v>
@@ -12851,7 +12743,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.632823452609867</v>
+        <v>1.573304170274985</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.70658370640286</v>
@@ -12940,7 +12832,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.620260683840958</v>
+        <v>1.575316268424874</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.117194478053492</v>
@@ -13029,7 +12921,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589499434230746</v>
+        <v>1.572763714505974</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.207374728495442</v>
@@ -13118,7 +13010,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.581863279698706</v>
+        <v>1.567779333500024</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.215360811121858</v>
@@ -13207,7 +13099,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.587699513488847</v>
+        <v>1.582909900362194</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.277959042684805</v>
@@ -13296,7 +13188,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.59682751102458</v>
+        <v>1.590388388149792</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.239636107855746</v>
@@ -13385,7 +13277,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.598683022762083</v>
+        <v>1.591213634528286</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.248686551938481</v>
@@ -13474,7 +13366,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.603517849315327</v>
+        <v>1.59025800063872</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.189272220163641</v>
@@ -13563,7 +13455,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.601796217962036</v>
+        <v>1.585275160866827</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.226820596029284</v>
@@ -13652,7 +13544,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.596475768599821</v>
+        <v>1.579729698335968</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.180624053892758</v>
@@ -13741,7 +13633,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582189075207084</v>
+        <v>1.573760588506047</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.218409822256654</v>
@@ -13830,7 +13722,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.585881687338326</v>
+        <v>1.576197910065508</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.228233440976284</v>
@@ -13919,7 +13811,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.596230202736052</v>
+        <v>1.584388088111083</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.216804536863879</v>
@@ -14008,7 +13900,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.603425420951076</v>
+        <v>1.59601734051559</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.19500290289621</v>
@@ -14097,7 +13989,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622790237367667</v>
+        <v>1.615314386413958</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.274785919970341</v>
@@ -14186,7 +14078,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.641407035485226</v>
+        <v>1.637011478940572</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.277544214778181</v>
@@ -14275,7 +14167,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.666000246909273</v>
+        <v>1.6483469406681</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.169458458230226</v>
@@ -14364,7 +14256,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.68794726577078</v>
+        <v>1.657502769990833</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.088684656260351</v>
@@ -14453,7 +14345,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.65624787092829</v>
+        <v>1.628345395789792</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.203400416787334</v>
@@ -14542,7 +14434,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.624894860667274</v>
+        <v>1.58934554617936</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.629876656871661</v>
@@ -14631,7 +14523,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.618791544833887</v>
+        <v>1.594735965085011</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.506707230257974</v>
@@ -14720,7 +14612,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626755880678503</v>
+        <v>1.608691119867319</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.563881612864748</v>
@@ -14809,7 +14701,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.624839914129994</v>
+        <v>1.612345609729308</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.577769295201918</v>
@@ -14898,7 +14790,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.622493838712732</v>
+        <v>1.614698676249029</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.44880940047467</v>
@@ -14987,7 +14879,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.619947193189816</v>
+        <v>1.614258042486615</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.75641860433386</v>
@@ -15076,7 +14968,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.634328320632589</v>
+        <v>1.623895621609074</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.662041897423812</v>
@@ -15165,7 +15057,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.634985760904437</v>
+        <v>1.623423471554256</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.651552311276791</v>
@@ -15254,7 +15146,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.619660331942106</v>
+        <v>1.607017657908814</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.553483802506817</v>
@@ -15343,7 +15235,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.612154305685467</v>
+        <v>1.590938512242741</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.569887601381318</v>
@@ -15432,7 +15324,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.590498792576046</v>
+        <v>1.569388303991298</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.612171438922919</v>
@@ -15521,7 +15413,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.564797587423184</v>
+        <v>1.537253544284339</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.348731666348412</v>
@@ -15610,7 +15502,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.55461287862548</v>
+        <v>1.526281445371492</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.392471870703854</v>
@@ -15699,7 +15591,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.556388776248259</v>
+        <v>1.521852107275231</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.414872542406294</v>
@@ -15788,7 +15680,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.585899831317571</v>
+        <v>1.547359058129415</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.35146044132289</v>
@@ -15877,7 +15769,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.603677844855489</v>
+        <v>1.560344881931578</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.661234451923268</v>
@@ -15966,7 +15858,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.611580499645947</v>
+        <v>1.560634210042519</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.221326952552672</v>
@@ -16055,7 +15947,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.619636285213051</v>
+        <v>1.564459661495717</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.668709142624948</v>
@@ -16341,7 +16233,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678702134426566</v>
+        <v>1.67851110945158</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.574722135778388</v>
@@ -16430,7 +16322,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.646045442524722</v>
+        <v>1.647798249634988</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.572376426482328</v>
@@ -16519,7 +16411,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641169747954904</v>
+        <v>1.643646193906986</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.593224613671282</v>
@@ -16608,7 +16500,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.645876992304572</v>
+        <v>1.648015514001943</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.599097968799519</v>
@@ -16697,7 +16589,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.642017320859374</v>
+        <v>1.642402757745821</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.61082411230273</v>
@@ -16786,7 +16678,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.639747191964154</v>
+        <v>1.638115131924711</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.535260646033724</v>
@@ -16875,7 +16767,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.641581601303517</v>
+        <v>1.638749787179202</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.589587902795103</v>
@@ -16964,7 +16856,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.642964534469793</v>
+        <v>1.636730811986351</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.411770140083929</v>
@@ -17053,7 +16945,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.683256166349205</v>
+        <v>1.666454726764653</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.228991609303574</v>
@@ -17142,7 +17034,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690629231106521</v>
+        <v>1.660010238428556</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.509568463808649</v>
@@ -17231,7 +17123,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.694413881240868</v>
+        <v>1.659958319600832</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.52883970892557</v>
@@ -17320,7 +17212,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.696031310020532</v>
+        <v>1.658844058603768</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.467710636666943</v>
@@ -17409,7 +17301,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.695360896561858</v>
+        <v>1.659582044760113</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.523707879156358</v>
@@ -17498,7 +17390,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.685100948447043</v>
+        <v>1.647993557109332</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.390262588304376</v>
@@ -17587,7 +17479,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.73422770722014</v>
+        <v>1.680869934925547</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.645762266064128</v>
@@ -17676,7 +17568,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.77205712732999</v>
+        <v>1.714591248213696</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.717916745292912</v>
@@ -17765,7 +17657,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.814046367819066</v>
+        <v>1.745895912454103</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.847088150891148</v>
@@ -17854,7 +17746,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.817960612484228</v>
+        <v>1.744679615652755</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.741261644166608</v>
@@ -17943,7 +17835,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.812501423523793</v>
+        <v>1.736097736037401</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.027529945098205</v>
@@ -18032,7 +17924,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.803522043816367</v>
+        <v>1.718061513456532</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.996973486589307</v>
@@ -18121,7 +18013,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.792275131223924</v>
+        <v>1.705905018045642</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.210754871433583</v>
@@ -18210,7 +18102,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.782078213679322</v>
+        <v>1.695272965267351</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.923614038564451</v>
@@ -18299,7 +18191,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.778942666183867</v>
+        <v>1.688562002758165</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.656503329442935</v>
@@ -18388,7 +18280,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.775946031862898</v>
+        <v>1.695917355468958</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.900359622113564</v>
@@ -18477,7 +18369,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.774316497545647</v>
+        <v>1.694434132323887</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.080924871342704</v>
@@ -18566,7 +18458,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.774151414831141</v>
+        <v>1.711772765315569</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.431454448299235</v>
@@ -18655,7 +18547,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.753218638437126</v>
+        <v>1.719323721746975</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.372150359834761</v>
@@ -18744,7 +18636,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.751490774791719</v>
+        <v>1.725891935477099</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.342152394892744</v>
@@ -18833,7 +18725,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.754998556435953</v>
+        <v>1.742018470739172</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.42516279624661</v>
@@ -18922,7 +18814,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.752859531013088</v>
+        <v>1.739513809421352</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.453646078290846</v>
@@ -19011,7 +18903,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.745226868185485</v>
+        <v>1.725640158383291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.379536249751956</v>
@@ -19100,7 +18992,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.738612857128596</v>
+        <v>1.719089575385143</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.354203205232674</v>
@@ -19189,7 +19081,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.734715208604416</v>
+        <v>1.71624997376388</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.364185767740869</v>
@@ -19278,7 +19170,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.728024938581273</v>
+        <v>1.707918767294321</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.330676525427229</v>
@@ -19367,7 +19259,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.72453501186764</v>
+        <v>1.709988135490417</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.365287637137383</v>
@@ -19456,7 +19348,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.72714399236655</v>
+        <v>1.71177623223154</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.329934270699889</v>
@@ -19545,7 +19437,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.731654580248793</v>
+        <v>1.715498036781232</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.41527781589446</v>
@@ -19634,7 +19526,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.737804154056682</v>
+        <v>1.728375177819746</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.342020366892567</v>
@@ -19723,7 +19615,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749420558502825</v>
+        <v>1.739438331028569</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.450395291013882</v>
@@ -19812,7 +19704,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.748928022590148</v>
+        <v>1.739466044009748</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.469934395960427</v>
@@ -19901,7 +19793,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.747814673244925</v>
+        <v>1.730269645523388</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.447355577908275</v>
@@ -19990,7 +19882,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.773686049969225</v>
+        <v>1.732947401734115</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.423277080702863</v>
@@ -20079,7 +19971,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.764621630044342</v>
+        <v>1.722208857022422</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.436397866757876</v>
@@ -20168,7 +20060,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.705516673892159</v>
+        <v>1.652705549160954</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.407018914347575</v>
@@ -20257,7 +20149,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703875632151114</v>
+        <v>1.664807727353342</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.457425943835263</v>
@@ -20346,7 +20238,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.715589513802066</v>
+        <v>1.68390807961519</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.518472741138412</v>
@@ -20435,7 +20327,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.719970111439805</v>
+        <v>1.694116723159475</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.527467751165598</v>
@@ -20524,7 +20416,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.729515128440032</v>
+        <v>1.708342967844047</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.560686516659392</v>
@@ -20613,7 +20505,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.741221705187985</v>
+        <v>1.721953781457391</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.588857143842278</v>
@@ -20702,7 +20594,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.754579960187973</v>
+        <v>1.735024185943128</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.615201028981097</v>
@@ -20791,7 +20683,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.762838317449449</v>
+        <v>1.75050947244386</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.568169366308592</v>
@@ -20880,7 +20772,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.762535140849804</v>
+        <v>1.749931811618128</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.624249976169241</v>
@@ -20969,7 +20861,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.758416369173732</v>
+        <v>1.741170930107097</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.531729969685454</v>
@@ -21058,7 +20950,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.751695197769172</v>
+        <v>1.732847019192667</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.617557232074124</v>
@@ -21147,7 +21039,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.750035571540415</v>
+        <v>1.728261259889107</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.57585555630704</v>
@@ -21236,7 +21128,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.746880045100719</v>
+        <v>1.722030010052971</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.54227535645311</v>
@@ -21325,7 +21217,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.74482765087365</v>
+        <v>1.713653872915075</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.50579867047302</v>
@@ -21414,7 +21306,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.769263026377106</v>
+        <v>1.732574210521679</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.595283464569608</v>
@@ -21503,7 +21395,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.813365244819016</v>
+        <v>1.770130860713276</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.850118853151622</v>
@@ -21592,7 +21484,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.83128324482805</v>
+        <v>1.77686025480982</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.874102120995828</v>
@@ -21681,7 +21573,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.840550995444887</v>
+        <v>1.775282173693226</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.276310794083476</v>
@@ -21967,7 +21859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.688800444032732</v>
+        <v>1.71224453860697</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.626345397911091</v>
@@ -22056,7 +21948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.675653793090228</v>
+        <v>1.704413315555556</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.636394617506027</v>
@@ -22145,7 +22037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.683386136360184</v>
+        <v>1.710913205118481</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.764318432358944</v>
@@ -22234,7 +22126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.692349505902135</v>
+        <v>1.719369529888309</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.637372148539728</v>
@@ -22323,7 +22215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.692465268118028</v>
+        <v>1.717696781547192</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.720716082072666</v>
@@ -22412,7 +22304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.700563169880679</v>
+        <v>1.728052538013997</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.795204802829192</v>
@@ -22501,7 +22393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.700164385168627</v>
+        <v>1.724776045043902</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.804384293633862</v>
@@ -22590,7 +22482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.696449856851988</v>
+        <v>1.721073078065589</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.79730068691462</v>
@@ -22679,7 +22571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.715022517223393</v>
+        <v>1.735401546137143</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.678474546129787</v>
@@ -22768,7 +22660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.717496170184174</v>
+        <v>1.730111442813552</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.627087969351894</v>
@@ -22857,7 +22749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.717792289375123</v>
+        <v>1.725120485198026</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.550014168496131</v>
@@ -22946,7 +22838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.711761603367196</v>
+        <v>1.718775685923382</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.535611858044598</v>
@@ -23035,7 +22927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.696119311306882</v>
+        <v>1.700989552665195</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.586964236560064</v>
@@ -23124,7 +23016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.690966108178531</v>
+        <v>1.692221315226464</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.471436286030059</v>
@@ -23213,7 +23105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.714205242923311</v>
+        <v>1.69492699577594</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.784618144676731</v>
@@ -23302,7 +23194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.718340139741853</v>
+        <v>1.685121326712073</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.557243217261051</v>
@@ -23391,7 +23283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.735162002732725</v>
+        <v>1.694373202811112</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.329361099488797</v>
@@ -23480,7 +23372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.724453345042975</v>
+        <v>1.678241969981924</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.001815712541178</v>
@@ -23569,7 +23461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.720668241715609</v>
+        <v>1.6710994496448</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.212653293204752</v>
@@ -23658,7 +23550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.71403531108548</v>
+        <v>1.662641001314188</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.228239225245417</v>
@@ -23747,7 +23639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.711756298380821</v>
+        <v>1.65421551943529</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.376904842257788</v>
@@ -23836,7 +23728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.704534039333623</v>
+        <v>1.646886805559269</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.460495504138665</v>
@@ -23925,7 +23817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.691656575843089</v>
+        <v>1.633985906146305</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.118715417016685</v>
@@ -24014,7 +23906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.694047672657609</v>
+        <v>1.633674498093874</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.436180733697956</v>
@@ -24103,7 +23995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.682596419906389</v>
+        <v>1.618471154083642</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.119980543713505</v>
@@ -24192,7 +24084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.693401167624988</v>
+        <v>1.6477158212715</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.992425723524801</v>
@@ -24281,7 +24173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.681420691775111</v>
+        <v>1.645481115307622</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.033978323719613</v>
@@ -24370,7 +24262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.68800062308633</v>
+        <v>1.656677199232063</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.024804679165347</v>
@@ -24459,7 +24351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688976715579876</v>
+        <v>1.667403952350638</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.045152041229542</v>
@@ -24548,7 +24440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.690978788459449</v>
+        <v>1.669886646460438</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.031574874486129</v>
@@ -24637,7 +24529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.687666035579059</v>
+        <v>1.66935852413582</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.025474888075944</v>
@@ -24726,7 +24618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.688448376759043</v>
+        <v>1.665597350910314</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.037691598255837</v>
@@ -24815,7 +24707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.680746909842668</v>
+        <v>1.664404783650646</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.993981592383908</v>
@@ -24904,7 +24796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.674334093169647</v>
+        <v>1.653415679110083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.008645129009732</v>
@@ -24993,7 +24885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.674260874590573</v>
+        <v>1.654705118453241</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.988787390866653</v>
@@ -25082,7 +24974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666492620394722</v>
+        <v>1.649055682819707</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.988329065413842</v>
@@ -25171,7 +25063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.662734912208726</v>
+        <v>1.649312087357197</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.97732984922618</v>
@@ -25260,7 +25152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.661503814383463</v>
+        <v>1.647935036165003</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.983126827188739</v>
@@ -25349,7 +25241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639255669495319</v>
+        <v>1.635757085436825</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.018187732785969</v>
@@ -25438,7 +25330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.639816063201024</v>
+        <v>1.640092654109418</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.961715121572438</v>
@@ -25527,7 +25419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.625817951167988</v>
+        <v>1.616544423321764</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.813361750435909</v>
@@ -25616,7 +25508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.623828516492119</v>
+        <v>1.612224191426119</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.730957558888975</v>
@@ -25705,7 +25597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.623204965649669</v>
+        <v>1.607890655834811</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.815537032953552</v>
@@ -25794,7 +25686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.590763070756798</v>
+        <v>1.573452765340266</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.704101178215667</v>
@@ -25883,7 +25775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.604300653809286</v>
+        <v>1.596492035414809</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.75806803060753</v>
@@ -25972,7 +25864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.629461941110255</v>
+        <v>1.62640081286796</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.79417236195134</v>
@@ -26061,7 +25953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.633238263603074</v>
+        <v>1.63483608034119</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.954269536400684</v>
@@ -26150,7 +26042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.64858113814031</v>
+        <v>1.649691884803967</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.822336755481988</v>
@@ -26239,7 +26131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.646107213614287</v>
+        <v>1.650640384763921</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.967329124678115</v>
@@ -26328,7 +26220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656444915283267</v>
+        <v>1.656869532691441</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.068962681522676</v>
@@ -26417,7 +26309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.660998379099754</v>
+        <v>1.660759722335789</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.981019193756159</v>
@@ -26506,7 +26398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.650907523164072</v>
+        <v>1.650847352769286</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.935176309096653</v>
@@ -26595,7 +26487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.660253144741753</v>
+        <v>1.655048406061703</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.883681157373482</v>
@@ -26684,7 +26576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.670199736515607</v>
+        <v>1.657451321100423</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.802732901076463</v>
@@ -26773,7 +26665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675724285968199</v>
+        <v>1.660206196722834</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.925438799029373</v>
@@ -26862,7 +26754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.665967864510769</v>
+        <v>1.65179618421472</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.97327787011338</v>
@@ -26951,7 +26843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.670882548848531</v>
+        <v>1.650445458539323</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.835732296301702</v>
@@ -27040,7 +26932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.681420543067049</v>
+        <v>1.655385738116369</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.673913232419194</v>
@@ -27129,7 +27021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.693760781164588</v>
+        <v>1.670814341314125</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.891936951516726</v>
@@ -27218,7 +27110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.68500851365025</v>
+        <v>1.65096080355694</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.306498344363664</v>
@@ -27307,7 +27199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.659190905513452</v>
+        <v>1.621679396623611</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.812342778539679</v>
@@ -27593,7 +27485,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.551302181473723</v>
+        <v>1.566755033438173</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.975635064748514</v>
@@ -27682,7 +27574,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509838957750978</v>
+        <v>1.542342912999014</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.977279370633108</v>
@@ -27771,7 +27663,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.495796847578204</v>
+        <v>1.525541893586189</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.982273957642017</v>
@@ -27860,7 +27752,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.481712218652771</v>
+        <v>1.511711609076323</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.990666060005026</v>
@@ -27949,7 +27841,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.47750543804621</v>
+        <v>1.504191417040461</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.975283008132765</v>
@@ -28038,7 +27930,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.474000587281931</v>
+        <v>1.498865128508572</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.990979377269875</v>
@@ -28127,7 +28019,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.4746308913866</v>
+        <v>1.500879606482232</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.992943209290482</v>
@@ -28216,7 +28108,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.475211655439017</v>
+        <v>1.50196948462688</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.964784259918141</v>
@@ -28305,7 +28197,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.50988494511785</v>
+        <v>1.52855370903396</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.783968959268445</v>
@@ -28394,7 +28286,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.484138512336922</v>
+        <v>1.494806819062678</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.857618684253117</v>
@@ -28483,7 +28375,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.527880275158577</v>
+        <v>1.534070142317976</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.824724902537614</v>
@@ -28572,7 +28464,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.536809851508156</v>
+        <v>1.538368207504299</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.832638569917104</v>
@@ -28661,7 +28553,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.539856976810278</v>
+        <v>1.538371964330495</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.808085337208252</v>
@@ -28750,7 +28642,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.533303308069072</v>
+        <v>1.526040310505106</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.78883574681518</v>
@@ -28839,7 +28731,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.527817251320531</v>
+        <v>1.514449933968992</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.794916419402195</v>
@@ -28928,7 +28820,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.631457636534785</v>
+        <v>1.607368567259672</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.971668447476349</v>
@@ -29017,7 +28909,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.668644621125654</v>
+        <v>1.632958615497623</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.086046189262406</v>
@@ -29106,7 +28998,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.729418109941184</v>
+        <v>1.683313736137187</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.85156824733983</v>
@@ -29195,7 +29087,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.757948307071965</v>
+        <v>1.705774917711089</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.740334771975884</v>
@@ -29284,7 +29176,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.749635203490788</v>
+        <v>1.699748760583051</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.051057229878304</v>
@@ -29373,7 +29265,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.727223118505792</v>
+        <v>1.681550822436566</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.998684347541392</v>
@@ -29462,7 +29354,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.712690358778496</v>
+        <v>1.66634845231055</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.895911549967435</v>
@@ -29551,7 +29443,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.700449918011864</v>
+        <v>1.655978512327132</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.814481062456816</v>
@@ -29640,7 +29532,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.689173078494896</v>
+        <v>1.659090961835849</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.509544550014039</v>
@@ -29729,7 +29621,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.682118358341214</v>
+        <v>1.655521095485075</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.790106966907897</v>
@@ -29818,7 +29710,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.720678102812786</v>
+        <v>1.720478111161367</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.030901365152925</v>
@@ -29907,7 +29799,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.709421793892451</v>
+        <v>1.718652311439473</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.07595057798417</v>
@@ -29996,7 +29888,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.700995483631921</v>
+        <v>1.714850473535257</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.079036550984511</v>
@@ -30085,7 +29977,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.693263963778118</v>
+        <v>1.712763039292855</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.064771566724847</v>
@@ -30174,7 +30066,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.699132305855455</v>
+        <v>1.726284341233665</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.085735913419611</v>
@@ -30263,7 +30155,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.694399504523487</v>
+        <v>1.720626203160657</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.043852461085597</v>
@@ -30352,7 +30244,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698982989556052</v>
+        <v>1.72185809302299</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.007605408369637</v>
@@ -30441,7 +30333,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.690091056783431</v>
+        <v>1.706575297985662</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.00527494411361</v>
@@ -30530,7 +30422,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.681234439307617</v>
+        <v>1.694239575222421</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.003429231941555</v>
@@ -30619,7 +30511,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.67262056846076</v>
+        <v>1.68830071719799</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.005114661885899</v>
@@ -30708,7 +30600,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.685730390806507</v>
+        <v>1.695421444234049</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.9882480360582</v>
@@ -30797,7 +30689,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696214566786283</v>
+        <v>1.703627389992336</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.046153067236598</v>
@@ -30886,7 +30778,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.706306560574448</v>
+        <v>1.714863794709137</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.996649820389299</v>
@@ -30975,7 +30867,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.716205970753389</v>
+        <v>1.724233846214953</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.052341895915903</v>
@@ -31064,7 +30956,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.728325186898332</v>
+        <v>1.731738440944397</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.024286669251873</v>
@@ -31153,7 +31045,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.706994784183629</v>
+        <v>1.688580818330738</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.599586904524239</v>
@@ -31242,7 +31134,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.712932494099891</v>
+        <v>1.69321949946438</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.524710323628014</v>
@@ -31331,7 +31223,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.713631209676769</v>
+        <v>1.692868179102111</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.735686928753396</v>
@@ -31420,7 +31312,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.587946386921741</v>
+        <v>1.580800693979066</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.851288350449324</v>
@@ -31509,7 +31401,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.587709524421805</v>
+        <v>1.587823996212697</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.860205751684455</v>
@@ -31598,7 +31490,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.593072411908385</v>
+        <v>1.596073817951575</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.874087369021077</v>
@@ -31687,7 +31579,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.596640231396821</v>
+        <v>1.60081277882487</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.879706124525049</v>
@@ -31776,7 +31668,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.598816850032043</v>
+        <v>1.608320916680829</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.891295394236937</v>
@@ -31865,7 +31757,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.601211899081834</v>
+        <v>1.612784322265411</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.889167555729682</v>
@@ -31954,7 +31846,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.606435869349457</v>
+        <v>1.617756977202679</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.89928015574405</v>
@@ -32043,7 +31935,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.608596095440093</v>
+        <v>1.624070833080273</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.89238388469936</v>
@@ -32132,7 +32024,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.595336820434744</v>
+        <v>1.613251531155351</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.904512050688023</v>
@@ -32221,7 +32113,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.587679961489565</v>
+        <v>1.600023869938316</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.870564342783336</v>
@@ -32310,7 +32202,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.572307215822309</v>
+        <v>1.583516845135544</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.823288181788064</v>
@@ -32399,7 +32291,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.555801446251249</v>
+        <v>1.564928089355435</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.823884521953866</v>
@@ -32488,7 +32380,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.546082649025341</v>
+        <v>1.555971011682205</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.815671790139991</v>
@@ -32577,7 +32469,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.539181498285347</v>
+        <v>1.542818654849243</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.79462235711099</v>
@@ -32666,7 +32558,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.543186288352046</v>
+        <v>1.543698038538041</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.904465218611215</v>
@@ -32755,7 +32647,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.656416852329479</v>
+        <v>1.644467478468595</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.62171236542687</v>
@@ -32844,7 +32736,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.656231280870054</v>
+        <v>1.630923716536927</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.876806307189284</v>
@@ -32933,7 +32825,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.672036634306781</v>
+        <v>1.649132732763816</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.102363752836243</v>
@@ -33219,7 +33111,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.363312630636559</v>
+        <v>1.378964673855119</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.958822797377923</v>
@@ -33308,7 +33200,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.335055936943879</v>
+        <v>1.342355201447396</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.007329415136376</v>
@@ -33397,7 +33289,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.332140471663098</v>
+        <v>1.341721634729868</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.986376227766265</v>
@@ -33486,7 +33378,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.341646596834345</v>
+        <v>1.351950583282434</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.041426974249368</v>
@@ -33575,7 +33467,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.344335206273456</v>
+        <v>1.353623442714226</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.024594338786624</v>
@@ -33664,7 +33556,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.353252798267899</v>
+        <v>1.363019442948299</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.022183936289873</v>
@@ -33753,7 +33645,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.362857829855042</v>
+        <v>1.372940081161131</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.029359311732396</v>
@@ -33842,7 +33734,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.363726209090525</v>
+        <v>1.371062504015841</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.983337749662654</v>
@@ -33931,7 +33823,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.407505739536702</v>
+        <v>1.426984216549543</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.770497408413514</v>
@@ -34020,7 +33912,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.411977541073012</v>
+        <v>1.430629206218579</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.937810711595674</v>
@@ -34109,7 +34001,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.422667170986787</v>
+        <v>1.443549180459312</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.925150651662627</v>
@@ -34198,7 +34090,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.419780110864419</v>
+        <v>1.441298814547808</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.925346966843155</v>
@@ -34287,7 +34179,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.413345407475087</v>
+        <v>1.433353066460456</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.903175135235141</v>
@@ -34376,7 +34268,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.405995635670899</v>
+        <v>1.421519404764018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.858755047279729</v>
@@ -34465,7 +34357,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.465635401633349</v>
+        <v>1.483205478189416</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.809474295199217</v>
@@ -34554,7 +34446,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.602612446695792</v>
+        <v>1.617591476123848</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.715342038530148</v>
@@ -34643,7 +34535,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.707751626880703</v>
+        <v>1.725148731601573</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.090209991963421</v>
@@ -34732,7 +34624,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.798688661387832</v>
+        <v>1.801557748462662</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.635268585603117</v>
@@ -34821,7 +34713,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.818532972786778</v>
+        <v>1.81934721046341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.916940045525665</v>
@@ -34910,7 +34802,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.811757335767792</v>
+        <v>1.818430283121972</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.090440122780507</v>
@@ -34999,7 +34891,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.7855738647405</v>
+        <v>1.793601912895679</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.870359186580446</v>
@@ -35088,7 +34980,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.778272253657953</v>
+        <v>1.784881612736243</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.788230329190148</v>
@@ -35177,7 +35069,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.774150282615723</v>
+        <v>1.783625791111874</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.847826144090345</v>
@@ -35266,7 +35158,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.790606668894344</v>
+        <v>1.794230548196741</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.014438614300752</v>
@@ -35355,7 +35247,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.757219909021396</v>
+        <v>1.754561135196753</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.792711138715945</v>
@@ -35444,7 +35336,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.737307599225784</v>
+        <v>1.741838743087958</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.704945578165295</v>
@@ -35533,7 +35425,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.712995931769815</v>
+        <v>1.720791328572633</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.574814646829968</v>
@@ -35622,7 +35514,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.694737447419626</v>
+        <v>1.705656562095988</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.705471071911107</v>
@@ -35711,7 +35603,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.697305919749128</v>
+        <v>1.713058950274281</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.799786687873311</v>
@@ -35800,7 +35692,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.686379746731874</v>
+        <v>1.70547380147961</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.808079892012481</v>
@@ -35889,7 +35781,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.688658649234896</v>
+        <v>1.708503014909919</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.798123293022983</v>
@@ -35978,7 +35870,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693272381531755</v>
+        <v>1.713500366466663</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.592940257636379</v>
@@ -36067,7 +35959,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.689084473374777</v>
+        <v>1.711325581973778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.748952127856867</v>
@@ -36156,7 +36048,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.681351640587515</v>
+        <v>1.699998018673789</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.759924144557722</v>
@@ -36245,7 +36137,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.643370394960391</v>
+        <v>1.658629286796609</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.692982064999416</v>
@@ -36334,7 +36226,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.652859588168563</v>
+        <v>1.668440493297427</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.608278261715849</v>
@@ -36423,7 +36315,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643081866902608</v>
+        <v>1.657357027978586</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.603285511549136</v>
@@ -36512,7 +36404,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609984455195874</v>
+        <v>1.6252513889559</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.6081083753128</v>
@@ -36601,7 +36493,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.579485370539955</v>
+        <v>1.602942250218314</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.634623874488457</v>
@@ -36690,7 +36582,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603569178833045</v>
+        <v>1.629159570029537</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.626665601707732</v>
@@ -36779,7 +36671,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.611248256325597</v>
+        <v>1.630266928601631</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.258023577083796</v>
@@ -36868,7 +36760,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.585972013101309</v>
+        <v>1.606601397400813</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.634686215918896</v>
@@ -36957,7 +36849,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.498078822136149</v>
+        <v>1.505080320394208</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.911366956668212</v>
@@ -37046,7 +36938,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.380517518933395</v>
+        <v>1.363995463135705</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.880464680887256</v>
@@ -37135,7 +37027,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.360830524079422</v>
+        <v>1.352186515506729</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.976741551567253</v>
@@ -37224,7 +37116,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.358942890866293</v>
+        <v>1.352445994225432</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.028794992766214</v>
@@ -37313,7 +37205,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.343171021243729</v>
+        <v>1.3443506998287</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.043700070275102</v>
@@ -37402,7 +37294,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.356346201667351</v>
+        <v>1.361966241484081</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.103600845372837</v>
@@ -37491,7 +37383,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.364475324774354</v>
+        <v>1.372555888574008</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.103291457164896</v>
@@ -37580,7 +37472,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.36973359449851</v>
+        <v>1.378420802950764</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.037498753301513</v>
@@ -37669,7 +37561,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.369159959810606</v>
+        <v>1.376849082750894</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.085900422820007</v>
@@ -37758,7 +37650,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.374847005571845</v>
+        <v>1.382721778412245</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.091277967563001</v>
@@ -37847,7 +37739,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.384599777570613</v>
+        <v>1.391981312615593</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.082708752298416</v>
@@ -37936,7 +37828,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.390968912229455</v>
+        <v>1.397517012809117</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.079362478734686</v>
@@ -38025,7 +37917,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.390068089623439</v>
+        <v>1.39556581728905</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.105127829168747</v>
@@ -38114,7 +38006,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.389335176342984</v>
+        <v>1.395243452783341</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.091824158426649</v>
@@ -38203,7 +38095,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.401620813451142</v>
+        <v>1.407374211064079</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.085351819162497</v>
@@ -38292,7 +38184,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.448220307422601</v>
+        <v>1.461542137853725</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.924547479155138</v>
@@ -38381,7 +38273,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.528165132794552</v>
+        <v>1.565398235864127</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.848954741621375</v>
@@ -38470,7 +38362,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.60302628153125</v>
+        <v>1.632392268610319</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.038599164977382</v>
@@ -38559,7 +38451,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.668661203539057</v>
+        <v>1.696004959325148</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.946361644964458</v>
